--- a/Tables/Table S15.xlsx
+++ b/Tables/Table S15.xlsx
@@ -266,37 +266,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -332,9 +315,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,126 +546,126 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -711,431 +691,431 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>8.31097069855495E-6</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>0.00185334646577775</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>0.00181091677326408</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>19.0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>3.21502463054187</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>6.55172413793103</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>1.31745948973557E-4</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>0.00619205960175718</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>0.00606724765009802</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>15.0</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>3.0542382928275</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>6.22406639004149</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>1.25218633451435E-4</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>0.00619205960175718</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>0.00606724765009802</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>18.0</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>2.71847434805309</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>7.46887966804979</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>4.70593751869194E-9</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>4.42358126757042E-7</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>4.33441613563731E-7</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>22.0</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>4.47954949614701</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>9.12863070539419</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>0.00250519770054511</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>0.142796268931071</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>0.139763661188306</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>10.0</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>2.88867865026805</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>7.93650793650794</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>1.02626721148733E-5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>8.87729177746344E-4</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>8.68876203519044E-4</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>12.0</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>4.6734693877551</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>9.52380952380952</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>1.0382797400542E-5</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>8.87729177746344E-4</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>8.68876203519044E-4</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>13.0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>4.30669077757685</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>10.3174603174603</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>3.50865812104196E-4</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>0.0252623384715021</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>0.0235141649515443</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>18.0</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>2.50058136595723</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>6.87022900763359</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>1.58474228504084E-10</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>3.42304333568821E-8</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>3.18616606781894E-8</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>25.0</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>4.68238822246456</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>9.54198473282443</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>61</v>
       </c>
     </row>
